--- a/hxb-interface.xlsx
+++ b/hxb-interface.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rensikun/work/mywork/系统设计/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rensikun/git/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28720" windowHeight="17540" tabRatio="1000" firstSheet="22" activeTab="30"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28720" windowHeight="17540" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="雪场-获取雪场（所有&amp;附近&amp;常去）" sheetId="16" r:id="rId1"/>
@@ -3075,8 +3075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9003,7 +9003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>

--- a/hxb-interface.xlsx
+++ b/hxb-interface.xlsx
@@ -9188,7 +9188,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/hxb-interface.xlsx
+++ b/hxb-interface.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="389">
   <si>
     <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -383,9 +383,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>snowpacks</t>
-  </si>
-  <si>
     <t>雪场列表</t>
     <rPh sb="0" eb="1">
       <t>xue'chang</t>
@@ -413,13 +410,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>位置</t>
-    <rPh sb="0" eb="1">
-      <t>wei'zhi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>人员状况</t>
     <rPh sb="0" eb="1">
       <t>ren'yuan</t>
@@ -443,15 +433,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>——snowpackId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>——hasBus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>——location</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -486,10 +468,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/snowpack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>页数</t>
     <rPh sb="0" eb="1">
       <t>ye'shu</t>
@@ -549,18 +527,6 @@
   </si>
   <si>
     <t>根据当前用户的位置信息，获取其位置所在城市的周边雪场列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/snowpack/near</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/snowpack/all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/snowpack/often</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -668,18 +634,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>snowpackId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snowpackTrailPic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>——snowpackName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>雪场雪道图</t>
     <rPh sb="0" eb="1">
       <t>xue'chang</t>
@@ -691,10 +645,6 @@
   </si>
   <si>
     <t>activitys</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snowpackName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1264,10 +1214,6 @@
   </si>
   <si>
     <t>spToken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snowpackId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1533,10 +1479,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/snowpack/simple</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取雪场简要信息</t>
     <rPh sb="0" eb="1">
       <t>huo'qu</t>
@@ -1553,10 +1495,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>snowpackName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>雪场名称</t>
     <rPh sb="0" eb="1">
       <t>xue'chang</t>
@@ -1590,10 +1528,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>snowpackSimples</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>雪场简讯列表</t>
     <rPh sb="0" eb="1">
       <t>xue'chang</t>
@@ -1607,19 +1541,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>——snowpackId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>——snowpackName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>——location</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>——snowpackTeachFee</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1637,10 +1559,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>snowpackId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>滑雪场ID</t>
     <rPh sb="0" eb="1">
       <t>hua'xue</t>
@@ -1756,10 +1674,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/snowpack/activity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/activity/newTeach</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1968,10 +1882,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>snowpackName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>滑雪场名称</t>
     <rPh sb="0" eb="1">
       <t>hua'xue'c</t>
@@ -2326,14 +2236,6 @@
     <rPh sb="2" eb="3">
       <t>nei'rong</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/snowpack/bus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/snowpack/myBus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2391,14 +2293,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/snowpack/busSite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/snowpack/busDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>activityBusId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2452,15 +2346,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/snowpack/busJoin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/snowpack/busQuit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2577,10 +2463,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>location</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>名称</t>
     <rPh sb="0" eb="1">
       <t>ming'cheng</t>
@@ -2635,6 +2517,106 @@
   </si>
   <si>
     <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>——address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <rPh sb="0" eb="1">
+      <t>di'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>——skiresortId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>——skiresortName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skiresortName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trailPic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skiresortName</t>
+  </si>
+  <si>
+    <t>skiresortName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trailPic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/skiresort/activity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/skiresort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/skiresort/all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/skiresort/often</t>
+  </si>
+  <si>
+    <t>skiresorts</t>
+  </si>
+  <si>
+    <t>skiresortId</t>
+  </si>
+  <si>
+    <t>/skiresort/bus</t>
+  </si>
+  <si>
+    <t>/skiresort/busSite</t>
+  </si>
+  <si>
+    <t>/skiresort/busJoin</t>
+  </si>
+  <si>
+    <t>/skiresort/myBus</t>
+  </si>
+  <si>
+    <t>/skiresort/busDetail</t>
+  </si>
+  <si>
+    <t>/skiresort/busQuit</t>
+  </si>
+  <si>
+    <t>/skiresort/simple</t>
+  </si>
+  <si>
+    <t>skiresortSimples</t>
+  </si>
+  <si>
+    <t>——skiresortId</t>
+  </si>
+  <si>
+    <t>——skiresortName</t>
+  </si>
+  <si>
+    <t>——skiresortTeachFee</t>
+  </si>
+  <si>
+    <t>/skiresort/near</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2751,7 +2733,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2768,6 +2750,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -3076,7 +3061,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3090,7 +3075,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3109,7 +3094,7 @@
         <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>373</v>
       </c>
       <c r="C3" t="s">
         <v>54</v>
@@ -3117,7 +3102,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3133,10 +3118,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>388</v>
       </c>
       <c r="C7" t="s">
         <v>54</v>
@@ -3144,7 +3129,7 @@
     </row>
     <row r="8" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -3152,7 +3137,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -3168,10 +3153,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>374</v>
       </c>
       <c r="C12" t="s">
         <v>54</v>
@@ -3179,7 +3164,7 @@
     </row>
     <row r="13" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -3215,7 +3200,7 @@
         <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>57</v>
@@ -3301,10 +3286,10 @@
     </row>
     <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>375</v>
+      </c>
+      <c r="B28" t="s">
         <v>58</v>
-      </c>
-      <c r="B28" t="s">
-        <v>59</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s">
@@ -3313,10 +3298,10 @@
     </row>
     <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>364</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s">
@@ -3325,77 +3310,77 @@
     </row>
     <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>365</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s">
         <v>43</v>
       </c>
       <c r="E30" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s">
         <v>43</v>
       </c>
       <c r="E31" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>361</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>362</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E32" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="49" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s">
         <v>43</v>
       </c>
       <c r="E33" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -3440,10 +3425,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="B3" t="s">
-        <v>358</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3470,10 +3455,10 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
@@ -3485,46 +3470,46 @@
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="B8" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="B9" t="s">
-        <v>362</v>
+        <v>334</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="B10" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="B11" t="s">
-        <v>366</v>
+        <v>338</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="B12" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="C12" s="2"/>
     </row>
@@ -3622,13 +3607,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3655,10 +3640,10 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
@@ -3673,7 +3658,7 @@
         <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>57</v>
@@ -3744,10 +3729,10 @@
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="B15" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s">
@@ -3756,10 +3741,10 @@
     </row>
     <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s">
@@ -3768,85 +3753,85 @@
     </row>
     <row r="17" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s">
         <v>43</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s">
         <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s">
         <v>43</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B22" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s">
@@ -3856,10 +3841,10 @@
     </row>
     <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B23" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s">
@@ -3869,17 +3854,17 @@
     </row>
     <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s">
         <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3919,13 +3904,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3952,10 +3937,10 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
@@ -3967,10 +3952,10 @@
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="B8" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -4036,51 +4021,51 @@
     </row>
     <row r="15" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="B16" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="B17" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="E17" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B18" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="B19" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="E19" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -4120,10 +4105,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
       <c r="B3" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4150,10 +4135,10 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
@@ -4165,10 +4150,10 @@
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="B8" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -4269,10 +4254,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4302,7 +4287,7 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>57</v>
@@ -4373,18 +4358,18 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="B14" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s">
@@ -4393,85 +4378,85 @@
     </row>
     <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s">
         <v>43</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s">
         <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s">
         <v>43</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s">
@@ -4481,10 +4466,10 @@
     </row>
     <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s">
@@ -4494,17 +4479,17 @@
     </row>
     <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s">
         <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -4544,10 +4529,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>369</v>
+        <v>341</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4577,7 +4562,7 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>57</v>
@@ -4588,7 +4573,7 @@
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -4651,36 +4636,36 @@
     </row>
     <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="B14" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>372</v>
+        <v>344</v>
       </c>
       <c r="B15" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="B16" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s">
@@ -4689,85 +4674,85 @@
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s">
         <v>43</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s">
         <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s">
         <v>43</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s">
         <v>43</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B23" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s">
@@ -4777,10 +4762,10 @@
     </row>
     <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B24" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s">
@@ -4790,17 +4775,17 @@
     </row>
     <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s">
         <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -4840,10 +4825,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4873,7 +4858,7 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>57</v>
@@ -4884,7 +4869,7 @@
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -4947,36 +4932,36 @@
     </row>
     <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="B14" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="B15" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="B16" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s">
@@ -4985,85 +4970,85 @@
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s">
         <v>43</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s">
         <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s">
         <v>43</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s">
         <v>43</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B23" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s">
@@ -5073,10 +5058,10 @@
     </row>
     <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B24" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s">
@@ -5086,17 +5071,17 @@
     </row>
     <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s">
         <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -5137,13 +5122,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>383</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -5175,7 +5160,7 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>57</v>
@@ -5258,19 +5243,19 @@
     </row>
     <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>221</v>
+        <v>384</v>
       </c>
       <c r="B17" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>223</v>
+        <v>385</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>11</v>
@@ -5278,10 +5263,10 @@
     </row>
     <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>224</v>
+        <v>386</v>
       </c>
       <c r="B19" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>11</v>
@@ -5289,23 +5274,23 @@
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="B20" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>226</v>
+        <v>387</v>
       </c>
       <c r="B21" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C21" s="2"/>
       <c r="E21" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.25">
@@ -5356,10 +5341,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="C3" t="s">
         <v>47</v>
@@ -5389,10 +5374,10 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
@@ -5403,79 +5388,79 @@
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>229</v>
+        <v>376</v>
       </c>
       <c r="B8" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="B9" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="B11" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="B12" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="B13" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="B14" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="B15" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="B16" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="C16" s="2"/>
     </row>
@@ -5602,10 +5587,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="B3" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -5632,10 +5617,10 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="B7" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
@@ -5721,192 +5706,192 @@
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="B18" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>229</v>
+        <v>376</v>
       </c>
       <c r="B19" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>217</v>
+        <v>368</v>
       </c>
       <c r="B20" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="B24" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="B25" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="B26" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="B27" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="B28" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="B29" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="B30" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="B31" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="C31" s="2"/>
       <c r="E31" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="B32" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="B33" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="B34" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="B35" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="B36" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="B37" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="B38" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="C38" s="2"/>
     </row>
@@ -5926,7 +5911,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5956,13 +5941,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3" t="s">
         <v>72</v>
-      </c>
-      <c r="C3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -5989,53 +5974,53 @@
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>217</v>
+        <v>366</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>362</v>
       </c>
       <c r="C9" s="2"/>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2"/>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>367</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C11" s="2"/>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.25">
@@ -6152,7 +6137,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -6182,10 +6167,10 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" t="s">
         <v>252</v>
-      </c>
-      <c r="B7" t="s">
-        <v>273</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>25</v>
@@ -6196,7 +6181,7 @@
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -6208,7 +6193,7 @@
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
@@ -6333,10 +6318,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="B3" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -6363,10 +6348,10 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" t="s">
         <v>252</v>
-      </c>
-      <c r="B7" t="s">
-        <v>273</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>25</v>
@@ -6377,7 +6362,7 @@
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -6389,7 +6374,7 @@
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
@@ -6463,81 +6448,81 @@
     </row>
     <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>278</v>
+        <v>368</v>
       </c>
       <c r="B17" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="B19" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="B20" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="B21" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="B22" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="B23" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="B24" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="B25" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="C25" s="2"/>
     </row>
@@ -6578,10 +6563,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="B3" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -6608,10 +6593,10 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" t="s">
         <v>252</v>
-      </c>
-      <c r="B7" t="s">
-        <v>273</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>25</v>
@@ -6622,19 +6607,19 @@
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="B8" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B9" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
@@ -6643,19 +6628,19 @@
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="B10" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="C10" s="2"/>
       <c r="E10" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.25">
@@ -6769,10 +6754,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -6799,10 +6784,10 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" t="s">
         <v>252</v>
-      </c>
-      <c r="B7" t="s">
-        <v>273</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>25</v>
@@ -6813,19 +6798,19 @@
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="B8" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B9" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
@@ -6834,19 +6819,19 @@
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="B10" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="C10" s="2"/>
       <c r="E10" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.25">
@@ -6958,10 +6943,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>386</v>
+        <v>357</v>
       </c>
       <c r="B3" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -6988,10 +6973,10 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="B7" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
@@ -7002,10 +6987,10 @@
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>387</v>
+        <v>358</v>
       </c>
       <c r="B8" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -7083,117 +7068,117 @@
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="B18" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>217</v>
+        <v>368</v>
       </c>
       <c r="B19" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="B21" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="B23" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="B24" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="B25" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="B27" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="B28" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="B29" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="B30" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="C30" s="2"/>
     </row>
@@ -7238,10 +7223,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="B3" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -7268,10 +7253,10 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" t="s">
         <v>252</v>
-      </c>
-      <c r="B7" t="s">
-        <v>273</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>25</v>
@@ -7282,19 +7267,19 @@
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="B8" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B9" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
@@ -7303,19 +7288,19 @@
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="B10" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="C10" s="2"/>
       <c r="E10" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.25">
@@ -7427,10 +7412,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -7457,10 +7442,10 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="B7" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>57</v>
@@ -7531,18 +7516,18 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B14" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s">
@@ -7551,85 +7536,85 @@
     </row>
     <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s">
         <v>43</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s">
         <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s">
         <v>43</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s">
@@ -7639,10 +7624,10 @@
     </row>
     <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s">
@@ -7652,17 +7637,17 @@
     </row>
     <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s">
         <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -7702,7 +7687,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="B3" t="s">
         <v>42</v>
@@ -7732,10 +7717,10 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="B7" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>57</v>
@@ -7746,10 +7731,10 @@
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="B8" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
@@ -7760,10 +7745,10 @@
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="B9" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>39</v>
@@ -7772,15 +7757,15 @@
         <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="B10" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>40</v>
@@ -7789,12 +7774,12 @@
         <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
@@ -7908,10 +7893,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -7938,10 +7923,10 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="B7" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>57</v>
@@ -8012,18 +7997,18 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B14" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s">
@@ -8032,85 +8017,85 @@
     </row>
     <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s">
         <v>43</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s">
         <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s">
         <v>43</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s">
@@ -8120,10 +8105,10 @@
     </row>
     <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s">
@@ -8133,17 +8118,17 @@
     </row>
     <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s">
         <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -8183,10 +8168,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -8213,10 +8198,10 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="B7" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>57</v>
@@ -8287,18 +8272,18 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="B14" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="B15" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
@@ -8309,19 +8294,19 @@
     </row>
     <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="B16" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="B17" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>39</v>
@@ -8330,15 +8315,15 @@
         <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="B18" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>40</v>
@@ -8347,12 +8332,12 @@
         <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
@@ -8393,8 +8378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8424,10 +8409,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>246</v>
+        <v>371</v>
       </c>
       <c r="C3" t="s">
         <v>54</v>
@@ -8435,7 +8420,7 @@
     </row>
     <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -8462,10 +8447,10 @@
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>376</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>57</v>
@@ -8479,7 +8464,7 @@
         <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>57</v>
@@ -8562,28 +8547,28 @@
     </row>
     <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>369</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>370</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s">
@@ -8592,10 +8577,10 @@
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s">
@@ -8604,86 +8589,86 @@
     </row>
     <row r="23" spans="1:6" ht="49" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s">
         <v>43</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s">
         <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s">
         <v>43</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s">
         <v>43</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s">
@@ -8693,10 +8678,10 @@
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B29" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s">
@@ -8706,17 +8691,17 @@
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s">
         <v>43</v>
       </c>
       <c r="E30" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -8762,7 +8747,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
@@ -8795,7 +8780,7 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -8807,7 +8792,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
@@ -8884,28 +8869,28 @@
     </row>
     <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>11</v>
@@ -8917,10 +8902,10 @@
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B21" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>32</v>
@@ -8931,10 +8916,10 @@
     </row>
     <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>11</v>
@@ -8945,24 +8930,24 @@
     </row>
     <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="B23" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="B24" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s">
@@ -8972,17 +8957,17 @@
     </row>
     <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="B25" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s">
         <v>43</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.25">
@@ -9031,10 +9016,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="B3" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -9064,7 +9049,7 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -9076,24 +9061,24 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="B8" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="B9" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="C9" s="2"/>
     </row>
@@ -9215,19 +9200,19 @@
     </row>
     <row r="3" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -9254,7 +9239,7 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -9266,7 +9251,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
@@ -9343,10 +9328,10 @@
     </row>
     <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B17" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>11</v>
@@ -9354,10 +9339,10 @@
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>11</v>
@@ -9365,24 +9350,24 @@
     </row>
     <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="B20" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s">
@@ -9392,10 +9377,10 @@
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B21" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s">
@@ -9440,21 +9425,21 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
@@ -9467,33 +9452,33 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
@@ -9522,33 +9507,33 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D15" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E15" t="s">
         <v>21</v>
@@ -9562,21 +9547,21 @@
         <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D16" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="E17" t="s">
         <v>27</v>
@@ -9601,7 +9586,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9622,21 +9607,21 @@
         <v>35</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C3" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -9646,33 +9631,33 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
@@ -9718,33 +9703,33 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D16" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E16" t="s">
         <v>21</v>
@@ -9758,15 +9743,15 @@
         <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D17" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -9822,7 +9807,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -9866,7 +9851,7 @@
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -9900,10 +9885,10 @@
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
@@ -9915,10 +9900,10 @@
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>32</v>
@@ -9929,10 +9914,10 @@
     </row>
     <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
@@ -10009,7 +9994,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10034,13 +10019,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -10067,10 +10052,10 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>179</v>
+        <v>376</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
@@ -10145,51 +10130,51 @@
     </row>
     <row r="15" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="B17" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="E17" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B18" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="B19" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="E19" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -10229,13 +10214,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>347</v>
+        <v>378</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -10262,10 +10247,10 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>179</v>
+        <v>376</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
@@ -10340,38 +10325,38 @@
     </row>
     <row r="15" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="B15" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B18" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/hxb-interface.xlsx
+++ b/hxb-interface.xlsx
@@ -16,35 +16,36 @@
     <sheet name="用户认证-获取用户认证信息" sheetId="17" r:id="rId2"/>
     <sheet name="用户认证-下发手机验证码" sheetId="7" r:id="rId3"/>
     <sheet name="用户认证-信息认证" sheetId="34" r:id="rId4"/>
-    <sheet name="用户认证-获取用户详细信息" sheetId="38" r:id="rId5"/>
-    <sheet name="雪场-获取雪场（所有&amp;附近&amp;常去）" sheetId="16" r:id="rId6"/>
-    <sheet name="雪场-获取雪场列表-简" sheetId="19" r:id="rId7"/>
-    <sheet name="雪场-增加雪场" sheetId="31" r:id="rId8"/>
-    <sheet name="雪场-获取雪场活动" sheetId="32" r:id="rId9"/>
-    <sheet name="教学-获取所有教学活动" sheetId="20" r:id="rId10"/>
-    <sheet name="教学-获取我的教活动" sheetId="44" r:id="rId11"/>
-    <sheet name="教学-发起教学" sheetId="5" r:id="rId12"/>
-    <sheet name="班车-获取详情" sheetId="48" r:id="rId13"/>
-    <sheet name="教学-教学小队详情" sheetId="8" r:id="rId14"/>
-    <sheet name="教学-教学小队申请加入" sheetId="9" r:id="rId15"/>
-    <sheet name="教学-获取我的学活动" sheetId="45" r:id="rId16"/>
+    <sheet name="用户认证-获取他人详细信息" sheetId="52" r:id="rId5"/>
+    <sheet name="用户认证-获取自己详细信息" sheetId="38" r:id="rId6"/>
+    <sheet name="雪场-获取雪场（所有&amp;附近&amp;常去）" sheetId="16" r:id="rId7"/>
+    <sheet name="雪场-获取雪场列表-简" sheetId="19" r:id="rId8"/>
+    <sheet name="雪场-增加雪场" sheetId="31" r:id="rId9"/>
+    <sheet name="雪场-获取雪场活动" sheetId="32" r:id="rId10"/>
+    <sheet name="教学-获取所有教学活动" sheetId="20" r:id="rId11"/>
+    <sheet name="教学-获取我的教活动" sheetId="44" r:id="rId12"/>
+    <sheet name="教学-发起教学" sheetId="5" r:id="rId13"/>
+    <sheet name="班车-获取详情" sheetId="48" r:id="rId14"/>
+    <sheet name="教学-教学小队详情" sheetId="8" r:id="rId15"/>
+    <sheet name="教学-教学小队申请加入" sheetId="9" r:id="rId16"/>
     <sheet name="教学-获取小队申请人列表" sheetId="23" r:id="rId17"/>
     <sheet name="教学-批准申请人" sheetId="25" r:id="rId18"/>
     <sheet name="教学-剔除申请人" sheetId="24" r:id="rId19"/>
     <sheet name="教学-小队学员列表" sheetId="46" r:id="rId20"/>
-    <sheet name="教学-晋级小队成员" sheetId="27" r:id="rId21"/>
-    <sheet name="教学-获取指定教学活动" sheetId="36" r:id="rId22"/>
-    <sheet name="教学-提交教学评价" sheetId="22" r:id="rId23"/>
-    <sheet name="教学-获取待评价教学活动" sheetId="15" r:id="rId24"/>
-    <sheet name="教学-获取指定活动所有评价" sheetId="37" r:id="rId25"/>
-    <sheet name="客服-提交反馈" sheetId="39" r:id="rId26"/>
-    <sheet name="暂不开发班车-获取班车活动" sheetId="30" r:id="rId27"/>
-    <sheet name="班车-获取班车点详情" sheetId="35" r:id="rId28"/>
-    <sheet name="班车-报名班车活动" sheetId="43" r:id="rId29"/>
-    <sheet name="班车-我的班车" sheetId="40" r:id="rId30"/>
-    <sheet name="班车-获取班车详情" sheetId="41" r:id="rId31"/>
-    <sheet name="获取班车详情" sheetId="47" r:id="rId32"/>
-    <sheet name="班车-退出班车活动" sheetId="42" r:id="rId33"/>
+    <sheet name="教学-获取我的学活动" sheetId="45" r:id="rId21"/>
+    <sheet name="教学-晋级小队成员" sheetId="27" r:id="rId22"/>
+    <sheet name="教学-获取指定教学活动" sheetId="36" r:id="rId23"/>
+    <sheet name="教学-提交教学评价" sheetId="22" r:id="rId24"/>
+    <sheet name="教学-获取待评价教学活动" sheetId="15" r:id="rId25"/>
+    <sheet name="教学-获取指定活动所有评价" sheetId="37" r:id="rId26"/>
+    <sheet name="客服-提交反馈" sheetId="39" r:id="rId27"/>
+    <sheet name="暂不开发班车-获取班车活动" sheetId="30" r:id="rId28"/>
+    <sheet name="班车-获取班车点详情" sheetId="35" r:id="rId29"/>
+    <sheet name="班车-报名班车活动" sheetId="43" r:id="rId30"/>
+    <sheet name="班车-我的班车" sheetId="40" r:id="rId31"/>
+    <sheet name="班车-获取班车详情" sheetId="41" r:id="rId32"/>
+    <sheet name="获取班车详情" sheetId="47" r:id="rId33"/>
+    <sheet name="班车-退出班车活动" sheetId="42" r:id="rId34"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="469">
   <si>
     <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,9 +300,6 @@
   <si>
     <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮政编码</t>
   </si>
   <si>
     <t>VARCHAR29)</t>
@@ -1026,14 +1024,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/sp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snowType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>滑雪偏好</t>
     <rPh sb="0" eb="1">
       <t>hua'xue</t>
@@ -1044,10 +1034,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>snowAge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>滑雪年龄</t>
     <rPh sb="0" eb="1">
       <t>hua'xue</t>
@@ -1055,10 +1041,6 @@
     <rPh sb="2" eb="3">
       <t>nian'l</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snowLevel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1393,18 +1375,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>studentLevelReq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phoneNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gatherTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>集合时间</t>
     <rPh sb="0" eb="1">
       <t>ji'he</t>
@@ -1415,10 +1385,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gatherSite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>集合地点</t>
     <rPh sb="0" eb="1">
       <t>ji'he</t>
@@ -1429,10 +1395,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>teachLength</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>教学时长</t>
     <rPh sb="0" eb="1">
       <t>jiao'xue</t>
@@ -1473,22 +1435,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>joinNeedKown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>perFee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>headLimit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/teach/teamDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1503,14 +1449,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>activityTeachId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>teamTitle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小队标题</t>
     <rPh sb="0" eb="1">
       <t>xiao'dui</t>
@@ -1623,42 +1561,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>个人资料详情链接</t>
-    <rPh sb="0" eb="1">
-      <t>ge'ren</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zi'liao</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>xiang'qing</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>lian'jie</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>——memberId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>——memberHeadPic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>——memberName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>——memberLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>——memberShowLink</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>教学小队ID</t>
     <rPh sb="0" eb="1">
       <t>jiao'xue</t>
@@ -1677,10 +1579,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/teach/teamApply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1695,14 +1593,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>snowTrailPic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyMembers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小队申请列表</t>
     <rPh sb="0" eb="1">
       <t>xiao'dui</t>
@@ -1716,10 +1606,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>——applyStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>申请状态</t>
     <rPh sb="0" eb="1">
       <t>shen'qing</t>
@@ -1730,14 +1616,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/teach/teamApplyList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当前用户ID</t>
     <rPh sb="0" eb="1">
       <t>dang'qian</t>
@@ -1761,46 +1639,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/teach/teamApproveApply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/teach/teamRemoveApply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>leaderName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>队长名称</t>
-    <rPh sb="0" eb="1">
-      <t>dui'zhang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ming'c</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>队长手机号</t>
-    <rPh sb="0" eb="1">
-      <t>dui'zhang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shou'ji'hao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyUserList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>——applyUserId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>申请人列表</t>
     <rPh sb="0" eb="1">
       <t>shen'qign'ren</t>
@@ -1811,22 +1649,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/teach/teamMermberUpper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/activity/teach</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>——activityId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>activityTeachId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>教学信息</t>
     <rPh sb="0" eb="1">
       <t>jiao'xue</t>
@@ -1837,18 +1659,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>teachInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/teach/evaluation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>evaluationType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>评价方式</t>
     <rPh sb="0" eb="1">
       <t>ping'jia</t>
@@ -1880,18 +1690,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>evaluationContent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/activity/teach2Evaluation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>评价信息列表</t>
     <rPh sb="0" eb="1">
       <t>ping'jia</t>
@@ -1905,27 +1703,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>evaluationScore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>teachEvaluations</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>——userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>——evaluationType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>——evaluationScore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>——evaluationContent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1943,26 +1721,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/activity/teachEvaluations</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user/detailInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userHeadPic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userSex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>teachLevel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1987,14 +1745,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>snowHistorys</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>——showHistory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>雪场历程项</t>
     <rPh sb="0" eb="1">
       <t>xue'chang</t>
@@ -2017,14 +1767,6 @@
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>feedbackContent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contactType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2224,18 +1966,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>snowLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snowComment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studys</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学习列表</t>
     <rPh sb="0" eb="1">
       <t>xue'xi</t>
@@ -2246,10 +1976,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/activity/myStudy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>specPic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2281,18 +2007,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>studyMembers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/teach/teamStudents</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>leaderUserId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>队长用户ID</t>
     <rPh sb="0" eb="1">
       <t>dui'zhang</t>
@@ -2303,10 +2017,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>——address</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2324,9 +2034,6 @@
   <si>
     <t>trailPic</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skiresortName</t>
   </si>
   <si>
     <t>trailPic</t>
@@ -2414,10 +2121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/activity/teach</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>contact</t>
   </si>
   <si>
@@ -2600,14 +2303,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/activity/teach/{pageIndex}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/activity/myTeach/{userId}/{pageIndex}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR2(32)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2647,13 +2342,6 @@
   </si>
   <si>
     <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未开始</t>
-    <rPh sb="0" eb="1">
-      <t>wei'kai's</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2862,27 +2550,552 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>skiResortId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/skiResort/bus/{skiResortId}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/teach/memberApply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activityId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>skiResortId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预估截止完成时间</t>
+    <t>skiResortName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trailPic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meetingTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>——id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>——name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>——headImagePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>——skiLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teachId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teachId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leaderContact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队长联系方式</t>
+    <rPh sb="0" eb="1">
+      <t>dui'zhang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lian'xi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fang'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teachId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leaderId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skiResortName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trailPic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>members</t>
+  </si>
+  <si>
+    <t>members</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>——state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘-1’：报名后已退出；0：已报名待批准；1：已批准待付款; 2: 已付款 2: 已拒绝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teach/memberApprove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teachId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>——applyUserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leaderId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领队ID</t>
+    <rPh sb="0" eb="1">
+      <t>ling'd</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userId":"1ad33809-5b4a-4e39-8aee-07e09bd2d52e",
+"teachId":"438b3451-1022-4f8b-a964-94d83baf3ed4",
+ "members":[
+  "1ad33809-5b4a-4e39-8aee-07e09bd2d52e",
+  "81fb8bfe-6dd8-4d5c-b0f2-613aab388592"
+  ]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teach/memberReject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teachId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skiResortName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trailPic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meetingTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>members</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teach/{pageIndex}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teach/{userId}/{pageIndex}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teach/memberPromotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>members</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>——userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【单板】（落叶飘）周末崇礼长城岭教学新手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teaching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teach/a/{teachId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-匿名，1-公开</t>
+    <rPh sb="2" eb="3">
+      <t>ni'ming</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gong'kai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价内容</t>
+    <rPh sb="0" eb="1">
+      <t>ping'jia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nei'rong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teach/memberEstimate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teachings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>estimates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teach/estimate/{teachId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>——type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>——score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>——content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teach/l/{userId}/{pageIndex}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>learns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑行等级</t>
+    <rPh sb="0" eb="1">
+      <t>hua'xing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>deng'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skiLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>encouragement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼓励语</t>
+    <rPh sb="2" eb="3">
+      <t>yu'yan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待优化</t>
+    <rPh sb="0" eb="1">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>you'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际完成时间</t>
+    <rPh sb="0" eb="1">
+      <t>shi'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预估完成时间</t>
     <rPh sb="0" eb="1">
       <t>yu'gu</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>jie'zhi</t>
+      <t>wan'cheng</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="6" eb="7">
       <t>shi'jian</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skiHistory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>——skiItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "headImagePath": "",
+  "name": "DT",
+  "phoneNo": "18677883437",
+  "rspCode": 0,
+  "rspDesc": "success",
+  "sex": 1,
+  "skiAge": 0,
+  "skiHistory": [
+    "2016-12-12 怀北国际滑雪场 20161028XC高手带",
+    "2016-12-12 怀北国际滑雪场 20161028XC高手带"
+  ],
+  "skiLevel": 0,
+  "skiType": 1,
+  "teachLevel": 0
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录不存在</t>
+    <rPh sb="0" eb="1">
+      <t>ji'l</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu'cun'zai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回码</t>
+    <rPh sb="0" eb="1">
+      <t>fan'hui'ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回码描述</t>
+    <rPh sb="0" eb="1">
+      <t>fan'hui'ma</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>miao'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库异常</t>
+    <rPh sb="0" eb="1">
+      <t>shu'ju'k</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yi'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码已经过期</t>
+  </si>
+  <si>
+    <t>openId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "headImagePath": "http://wx.qlogo.cn/mmopen/g3MonUZtNHkdmzicIlibx6iaFqAc56vxLSUfpb6n5WKSYVY0ChQKkiaJSgQ1dZuTOgvLLrhJbERQQ4eMsv84eavHiaiceqxibJxCfHe/0",
+  "name": "test-20161102093029",
+  "phoneNo": "18600363459",
+  "rspCode": 0,
+  "rspDesc": "success",
+  "skiLevel": 1,
+  "skiType": 1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o6_bmjrPTlm6_2sgVt7hMZOPfL2M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/auth/phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teach/memberApply/{teachId}/{leaderOpenId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "members": [
+    {
+      "headImagePath": "http://wx.qlogo.cn/mmopen/g3MonUZtNHkdmzicIlibx6iaFqAc56vxLSUfpb6n5WKSYVY0ChQKkiaJSgQ1dZuTOgvLLrhJbERQQ4eMsv84eavHiaiceqxibJxCfHe/0",
+      "id": "3f5b0b54-bf37-4ff8-a4aa-3863528d7b67",
+      "name": "叨叨",
+      "skiLevel": 1,
+      "state": 0
+    },
+    {
+      "headImagePath": "http://wx.qlogo.cn/mmopen/g3MonUZtNHkdmzicIlibx6iaFqAc56vxLSUfpb6n5WKSYVY0ChQKkiaJSgQ1dZuTOgvLLrhJbERQQ4eMsv84eavHiaiceqxibJxCfHe/0",
+      "id": "4f98783e-e9b0-481b-a2e3-b9b73eb2795e",
+      "name": "小时",
+      "skiLevel": 1,
+      "state": 0
+    }
+  ],
+  "rspCode": 0,
+  "rspDesc": "success",
+  "skiResortName": "怀北国际滑雪场",
+  "trailPic": "http://2.jpg"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出实例</t>
+    <rPh sb="1" eb="2">
+      <t>chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leaderOpenId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teach/team/{teachId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leaderOpenId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teach/member/{teachId}/{leaderOpenId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teach/unEstimate/{openId}/{pageIndex}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/detail/{openid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/detail/o/{userId}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2987,7 +3200,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3041,8 +3254,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3068,8 +3311,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="83">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -3097,6 +3344,21 @@
     <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -3123,6 +3385,21 @@
     <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3400,310 +3677,387 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>429</v>
+        <v>357</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>430</v>
+        <v>358</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>431</v>
+        <v>359</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="I1" t="s">
+        <v>448</v>
+      </c>
+      <c r="J1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>424</v>
+        <v>352</v>
       </c>
       <c r="B2" t="s">
-        <v>396</v>
+        <v>324</v>
       </c>
       <c r="C2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+      <c r="I2">
+        <v>999999</v>
+      </c>
+      <c r="J2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>395</v>
+        <v>323</v>
       </c>
       <c r="C3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+      <c r="I3">
+        <v>100000</v>
+      </c>
+      <c r="J3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>397</v>
+        <v>325</v>
       </c>
       <c r="C4" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+      <c r="I4">
+        <v>100003</v>
+      </c>
+      <c r="J4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>398</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>394</v>
+        <v>326</v>
+      </c>
+      <c r="C5" t="s">
+        <v>322</v>
       </c>
       <c r="D5">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>399</v>
+        <v>327</v>
       </c>
       <c r="B6" t="s">
-        <v>419</v>
+        <v>347</v>
       </c>
       <c r="C6" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>418</v>
+        <v>346</v>
       </c>
       <c r="C7" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>400</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>394</v>
+        <v>328</v>
+      </c>
+      <c r="C8" t="s">
+        <v>322</v>
       </c>
       <c r="D8">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>401</v>
+        <v>329</v>
       </c>
       <c r="C9" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>403</v>
+        <v>331</v>
       </c>
       <c r="C10" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>425</v>
+        <v>353</v>
       </c>
       <c r="B11" t="s">
-        <v>422</v>
+        <v>350</v>
       </c>
       <c r="C11" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>420</v>
+        <v>348</v>
       </c>
       <c r="C12" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>421</v>
+        <v>349</v>
       </c>
       <c r="C13" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>405</v>
+        <v>333</v>
       </c>
       <c r="C14" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>406</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>394</v>
+        <v>334</v>
+      </c>
+      <c r="C15" t="s">
+        <v>330</v>
       </c>
       <c r="D15">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>427</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>394</v>
+        <v>355</v>
+      </c>
+      <c r="C16" t="s">
+        <v>330</v>
       </c>
       <c r="D16">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>10.31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>428</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>394</v>
+        <v>356</v>
+      </c>
+      <c r="C17" t="s">
+        <v>330</v>
       </c>
       <c r="D17">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>10.31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>407</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>394</v>
+        <v>335</v>
+      </c>
+      <c r="C18" t="s">
+        <v>330</v>
       </c>
       <c r="D18">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>10.31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>408</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>394</v>
+        <v>336</v>
+      </c>
+      <c r="C19" t="s">
+        <v>330</v>
       </c>
       <c r="D19">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>10.31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>409</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>394</v>
+        <v>337</v>
+      </c>
+      <c r="C20" t="s">
+        <v>330</v>
       </c>
       <c r="D20">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>10.31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>410</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>394</v>
+        <v>338</v>
+      </c>
+      <c r="C21" t="s">
+        <v>330</v>
       </c>
       <c r="D21">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>10.31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>411</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>394</v>
+        <v>339</v>
+      </c>
+      <c r="C22" t="s">
+        <v>330</v>
       </c>
       <c r="D22">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>10.31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>412</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>394</v>
+        <v>340</v>
+      </c>
+      <c r="C23" t="s">
+        <v>330</v>
       </c>
       <c r="D23">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>10.31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>413</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>394</v>
+        <v>341</v>
+      </c>
+      <c r="C24" t="s">
+        <v>330</v>
       </c>
       <c r="D24">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>423</v>
+        <v>351</v>
       </c>
       <c r="B25" t="s">
-        <v>414</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>394</v>
+        <v>342</v>
+      </c>
+      <c r="C25" t="s">
+        <v>330</v>
       </c>
       <c r="D25">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>415</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>394</v>
+        <v>343</v>
+      </c>
+      <c r="C26" t="s">
+        <v>330</v>
       </c>
       <c r="D26">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>416</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>394</v>
+        <v>344</v>
+      </c>
+      <c r="C27" t="s">
+        <v>330</v>
       </c>
       <c r="D27">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>426</v>
+        <v>354</v>
       </c>
       <c r="B28" t="s">
-        <v>417</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>394</v>
+        <v>345</v>
+      </c>
+      <c r="C28" t="s">
+        <v>330</v>
       </c>
       <c r="D28">
         <v>11.2</v>
+      </c>
+      <c r="E28">
+        <v>11.1</v>
       </c>
     </row>
   </sheetData>
@@ -3714,10 +4068,365 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.5" customWidth="1"/>
+    <col min="6" max="6" width="42.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="C10" s="2"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>289</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>252</v>
+      </c>
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>291</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>282</v>
+      </c>
+      <c r="B23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>284</v>
+      </c>
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>285</v>
+      </c>
+      <c r="B26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>286</v>
+      </c>
+      <c r="B27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>292</v>
+      </c>
+      <c r="B28" t="s">
+        <v>290</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>287</v>
+      </c>
+      <c r="B29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>288</v>
+      </c>
+      <c r="B30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A14" sqref="A14:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3743,10 +4452,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3773,13 +4482,13 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -3847,151 +4556,151 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>360</v>
+        <v>291</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>351</v>
+        <v>282</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>352</v>
+        <v>283</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>353</v>
+        <v>284</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>354</v>
+        <v>285</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>355</v>
+        <v>286</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>361</v>
+        <v>292</v>
       </c>
       <c r="B21" t="s">
-        <v>359</v>
+        <v>290</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>356</v>
+        <v>287</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>357</v>
+        <v>288</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4001,12 +4710,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B18" sqref="B18:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4032,10 +4741,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4062,27 +4771,27 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>282</v>
+        <v>223</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>385</v>
+        <v>314</v>
       </c>
       <c r="D7" t="s">
-        <v>386</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -4147,36 +4856,36 @@
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>299</v>
+        <v>240</v>
       </c>
       <c r="B15" t="s">
-        <v>263</v>
+        <v>208</v>
       </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>300</v>
+        <v>241</v>
       </c>
       <c r="B16" t="s">
-        <v>298</v>
+        <v>239</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>360</v>
+        <v>291</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s">
@@ -4185,85 +4894,85 @@
     </row>
     <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>351</v>
+        <v>282</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>352</v>
+        <v>283</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s">
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>353</v>
+        <v>284</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s">
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>354</v>
+        <v>285</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>355</v>
+        <v>286</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>361</v>
+        <v>292</v>
       </c>
       <c r="B24" t="s">
-        <v>359</v>
+        <v>290</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s">
@@ -4273,10 +4982,10 @@
     </row>
     <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>356</v>
+        <v>287</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s">
@@ -4286,10 +4995,10 @@
     </row>
     <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>357</v>
+        <v>288</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s">
@@ -4299,17 +5008,17 @@
     </row>
     <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4319,12 +5028,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4353,13 +5062,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>340</v>
+        <v>411</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4386,91 +5095,91 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>371</v>
+        <v>302</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>342</v>
+        <v>273</v>
       </c>
       <c r="B8" t="s">
-        <v>343</v>
+        <v>274</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>344</v>
+        <v>275</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>341</v>
+        <v>272</v>
       </c>
       <c r="B10" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>346</v>
+        <v>277</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>345</v>
+        <v>276</v>
       </c>
       <c r="B12" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>349</v>
+        <v>280</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>347</v>
+        <v>278</v>
       </c>
       <c r="B14" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>348</v>
+        <v>279</v>
       </c>
       <c r="B15" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>350</v>
+        <v>281</v>
       </c>
       <c r="B16" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C16" s="2"/>
     </row>
@@ -4567,12 +5276,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4597,13 +5306,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>436</v>
+        <v>365</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4630,10 +5339,10 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>437</v>
+        <v>364</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
@@ -4708,51 +5417,51 @@
     </row>
     <row r="15" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B15" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>283</v>
+        <v>224</v>
       </c>
       <c r="B17" t="s">
-        <v>284</v>
+        <v>225</v>
       </c>
       <c r="E17" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>285</v>
+        <v>226</v>
       </c>
       <c r="B19" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E19" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4761,12 +5470,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4792,10 +5501,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>186</v>
+        <v>460</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4822,10 +5531,10 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>381</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
@@ -4911,212 +5620,195 @@
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>190</v>
+        <v>369</v>
       </c>
       <c r="B18" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>321</v>
+        <v>370</v>
       </c>
       <c r="B19" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>319</v>
+        <v>371</v>
       </c>
       <c r="B20" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>216</v>
+        <v>372</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>376</v>
       </c>
       <c r="B22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>173</v>
+        <v>373</v>
       </c>
       <c r="B23" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>174</v>
+        <v>276</v>
       </c>
       <c r="B24" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>176</v>
+        <v>280</v>
       </c>
       <c r="B25" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>178</v>
+        <v>278</v>
       </c>
       <c r="B26" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>185</v>
+        <v>377</v>
       </c>
       <c r="B27" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>184</v>
+        <v>368</v>
       </c>
       <c r="B28" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B29" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>194</v>
+        <v>382</v>
       </c>
       <c r="B30" t="s">
-        <v>193</v>
+        <v>383</v>
       </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="B31" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="C31" s="2"/>
       <c r="E31" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="B32" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>195</v>
+        <v>374</v>
       </c>
       <c r="B33" t="s">
-        <v>196</v>
-      </c>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>205</v>
+        <v>378</v>
       </c>
       <c r="B34" t="s">
-        <v>200</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>206</v>
+        <v>375</v>
       </c>
       <c r="B35" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>207</v>
+        <v>379</v>
       </c>
       <c r="B36" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>208</v>
-      </c>
-      <c r="B37" t="s">
-        <v>203</v>
-      </c>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>209</v>
-      </c>
-      <c r="B38" t="s">
-        <v>204</v>
-      </c>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5142,7 +5834,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>213</v>
+        <v>366</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -5172,10 +5864,10 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>367</v>
       </c>
       <c r="B7" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>25</v>
@@ -5186,7 +5878,7 @@
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -5198,7 +5890,7 @@
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
@@ -5290,23 +5982,23 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="73.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -5323,11 +6015,11 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>305</v>
+      <c r="A3" s="1" t="s">
+        <v>456</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -5354,13 +6046,13 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>384</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>188</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -5368,233 +6060,187 @@
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>282</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="B8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>301</v>
-      </c>
-      <c r="B14" t="s">
-        <v>263</v>
-      </c>
-      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>302</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>298</v>
-      </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>303</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>304</v>
+        <v>19</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>386</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>192</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>387</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>389</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>193</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>374</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" t="s">
-        <v>98</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>378</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>160</v>
-      </c>
     </row>
     <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>375</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>186</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>379</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>390</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>194</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>108</v>
-      </c>
-      <c r="B25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" t="s">
-        <v>62</v>
+      <c r="E24" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="409" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>457</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5619,10 +6265,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>221</v>
+        <v>392</v>
       </c>
       <c r="B3" t="s">
-        <v>214</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -5649,10 +6295,10 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>394</v>
       </c>
       <c r="B7" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>25</v>
@@ -5663,169 +6309,116 @@
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>211</v>
+        <v>388</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>395</v>
+      </c>
+      <c r="B9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="E8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>49</v>
+      <c r="A10" t="s">
+        <v>459</v>
+      </c>
+      <c r="B10" t="s">
+        <v>397</v>
       </c>
       <c r="C10" s="2"/>
+      <c r="E10" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="177" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="C16" s="2"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="C19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>319</v>
-      </c>
-      <c r="B17" t="s">
-        <v>215</v>
-      </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>216</v>
-      </c>
-      <c r="B18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>217</v>
-      </c>
-      <c r="B19" t="s">
-        <v>218</v>
-      </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>205</v>
-      </c>
-      <c r="B20" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>206</v>
-      </c>
-      <c r="B21" t="s">
-        <v>201</v>
-      </c>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>207</v>
-      </c>
-      <c r="B22" t="s">
-        <v>202</v>
-      </c>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>208</v>
-      </c>
-      <c r="B23" t="s">
-        <v>203</v>
-      </c>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>209</v>
-      </c>
-      <c r="B24" t="s">
-        <v>204</v>
-      </c>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>219</v>
-      </c>
-      <c r="B25" t="s">
-        <v>220</v>
-      </c>
-      <c r="C25" s="2"/>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5834,907 +6427,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B7" t="s">
-        <v>210</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>231</v>
-      </c>
-      <c r="B9" t="s">
-        <v>224</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>211</v>
-      </c>
-      <c r="B10" t="s">
-        <v>223</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="E10" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="C16" s="2"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B7" t="s">
-        <v>210</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>231</v>
-      </c>
-      <c r="B9" t="s">
-        <v>224</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>211</v>
-      </c>
-      <c r="B10" t="s">
-        <v>223</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="E10" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="C15" s="2"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="46.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="144" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>432</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="C8" s="2"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="C10" s="2"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="C11" s="2"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>126</v>
-      </c>
-      <c r="B17" t="s">
-        <v>145</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>367</v>
-      </c>
-      <c r="B18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>368</v>
-      </c>
-      <c r="B19" t="s">
-        <v>163</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="E19" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>328</v>
-      </c>
-      <c r="B20" t="s">
-        <v>307</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>365</v>
-      </c>
-      <c r="B21" t="s">
-        <v>308</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="C22" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>312</v>
-      </c>
-      <c r="B8" t="s">
-        <v>313</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="C9" s="2"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="C11" s="2"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="C12" s="2"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>190</v>
-      </c>
-      <c r="B18" t="s">
-        <v>191</v>
-      </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>319</v>
-      </c>
-      <c r="B19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>216</v>
-      </c>
-      <c r="B20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>174</v>
-      </c>
-      <c r="B21" t="s">
-        <v>175</v>
-      </c>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>178</v>
-      </c>
-      <c r="B22" t="s">
-        <v>179</v>
-      </c>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>185</v>
-      </c>
-      <c r="B23" t="s">
-        <v>180</v>
-      </c>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>184</v>
-      </c>
-      <c r="B24" t="s">
-        <v>181</v>
-      </c>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>310</v>
-      </c>
-      <c r="B25" t="s">
-        <v>309</v>
-      </c>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>205</v>
-      </c>
-      <c r="B26" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>206</v>
-      </c>
-      <c r="B27" t="s">
-        <v>201</v>
-      </c>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>207</v>
-      </c>
-      <c r="B28" t="s">
-        <v>202</v>
-      </c>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>208</v>
-      </c>
-      <c r="B29" t="s">
-        <v>203</v>
-      </c>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>209</v>
-      </c>
-      <c r="B30" t="s">
-        <v>204</v>
-      </c>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -6762,10 +6457,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>400</v>
       </c>
       <c r="B3" t="s">
-        <v>222</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -6792,10 +6487,10 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>394</v>
       </c>
       <c r="B7" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>25</v>
@@ -6806,40 +6501,40 @@
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>230</v>
+        <v>388</v>
       </c>
       <c r="B8" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>231</v>
+        <v>395</v>
       </c>
       <c r="B9" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>211</v>
+        <v>396</v>
       </c>
       <c r="B10" t="s">
-        <v>223</v>
+        <v>397</v>
       </c>
       <c r="C10" s="2"/>
       <c r="E10" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.25">
@@ -6849,69 +6544,914 @@
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="C14" s="2"/>
     </row>
+    <row r="15" spans="1:5" ht="177" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="C16" s="2"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="46.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="144" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>454</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="C15" s="2"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>9</v>
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>298</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>299</v>
+      </c>
+      <c r="B19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E19" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>260</v>
+      </c>
+      <c r="B20" t="s">
+        <v>244</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>296</v>
+      </c>
+      <c r="B21" t="s">
+        <v>245</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="208" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>401</v>
+      </c>
+      <c r="B7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>461</v>
+      </c>
+      <c r="B8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>402</v>
+      </c>
+      <c r="B18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>403</v>
+      </c>
       <c r="B19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>404</v>
+      </c>
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>405</v>
+      </c>
+      <c r="B21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>406</v>
+      </c>
+      <c r="B22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>278</v>
+      </c>
+      <c r="B23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>407</v>
+      </c>
+      <c r="B24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>408</v>
+      </c>
+      <c r="B25" t="s">
+        <v>246</v>
+      </c>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>374</v>
+      </c>
+      <c r="B26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>378</v>
+      </c>
+      <c r="B27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>375</v>
+      </c>
+      <c r="B28" t="s">
+        <v>186</v>
+      </c>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>379</v>
+      </c>
+      <c r="B29" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>390</v>
+      </c>
+      <c r="B30" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>437</v>
+      </c>
+      <c r="B14" t="s">
+        <v>436</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>438</v>
+      </c>
+      <c r="B15" t="s">
+        <v>439</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>435</v>
+      </c>
+      <c r="B16" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>291</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>282</v>
+      </c>
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>283</v>
+      </c>
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s">
         <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>284</v>
+      </c>
+      <c r="B20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>286</v>
+      </c>
+      <c r="B22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>292</v>
+      </c>
+      <c r="B23" t="s">
+        <v>290</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>287</v>
+      </c>
+      <c r="B24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>288</v>
+      </c>
+      <c r="B25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -6922,10 +7462,198 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>380</v>
+      </c>
+      <c r="B7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>413</v>
+      </c>
+      <c r="B8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>414</v>
+      </c>
+      <c r="B9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>459</v>
+      </c>
+      <c r="B10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="E10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="C15" s="2"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A10:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6951,10 +7679,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>418</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -6981,13 +7709,13 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>236</v>
+        <v>380</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -7055,138 +7783,151 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>238</v>
+        <v>417</v>
       </c>
       <c r="B14" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>235</v>
+        <v>291</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>282</v>
+      </c>
+      <c r="B16" t="s">
         <v>90</v>
-      </c>
-      <c r="B16" t="s">
-        <v>91</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>162</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>283</v>
+      </c>
+      <c r="B17" t="s">
         <v>92</v>
-      </c>
-      <c r="B17" t="s">
-        <v>93</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>284</v>
+      </c>
+      <c r="B18" t="s">
         <v>95</v>
-      </c>
-      <c r="B18" t="s">
-        <v>96</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>285</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>286</v>
+      </c>
+      <c r="B20" t="s">
         <v>100</v>
-      </c>
-      <c r="B20" t="s">
-        <v>101</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>292</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>290</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>287</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>288</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" t="s">
-        <v>62</v>
+        <v>10</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -7195,12 +7936,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7226,10 +7967,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>239</v>
+        <v>425</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -7256,13 +7997,13 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>236</v>
+        <v>381</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -7270,10 +8011,10 @@
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>211</v>
+        <v>463</v>
       </c>
       <c r="B8" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
@@ -7284,55 +8025,55 @@
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>419</v>
       </c>
       <c r="B9" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>242</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>249</v>
+        <v>420</v>
       </c>
       <c r="B10" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>245</v>
+        <v>421</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>424</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>41</v>
+        <v>422</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.25">
@@ -7372,7 +8113,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
@@ -7398,15 +8139,327 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>464</v>
+      </c>
+      <c r="B7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>426</v>
+      </c>
+      <c r="B16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>291</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>282</v>
+      </c>
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>283</v>
+      </c>
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>284</v>
+      </c>
+      <c r="B20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>285</v>
+      </c>
+      <c r="B21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>286</v>
+      </c>
+      <c r="B22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>292</v>
+      </c>
+      <c r="B23" t="s">
+        <v>290</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>287</v>
+      </c>
+      <c r="B24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>288</v>
+      </c>
+      <c r="B25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7432,10 +8485,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>428</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -7462,13 +8515,13 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>247</v>
+        <v>381</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>174</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -7536,389 +8589,245 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>238</v>
+        <v>427</v>
       </c>
       <c r="B14" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>205</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>206</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>429</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>430</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="D18" t="s">
         <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>431</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="D19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>417</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>291</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="1"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>282</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>283</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>284</v>
+      </c>
+      <c r="B24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>286</v>
+      </c>
+      <c r="B26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>292</v>
+      </c>
+      <c r="B27" t="s">
+        <v>290</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>287</v>
+      </c>
+      <c r="B28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>288</v>
+      </c>
+      <c r="B29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>236</v>
-      </c>
-      <c r="B7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="C9" s="2"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>250</v>
-      </c>
-      <c r="B14" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>251</v>
-      </c>
-      <c r="B15" t="s">
-        <v>223</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>255</v>
-      </c>
-      <c r="B16" t="s">
-        <v>256</v>
-      </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>252</v>
-      </c>
-      <c r="B17" t="s">
-        <v>241</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>253</v>
-      </c>
-      <c r="B18" t="s">
-        <v>243</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>254</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="C20" s="2"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="C21" s="2"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="C22" s="2"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="C23" s="2"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="C24" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7945,10 +8854,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>270</v>
+        <v>213</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -7978,7 +8887,7 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>282</v>
+        <v>464</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -7990,24 +8899,24 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>271</v>
+        <v>433</v>
       </c>
       <c r="B8" t="s">
-        <v>273</v>
+        <v>214</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>272</v>
+        <v>432</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="C9" s="2"/>
     </row>
@@ -8097,7 +9006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -8127,13 +9036,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>322</v>
+        <v>254</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -8160,10 +9069,10 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>321</v>
+        <v>253</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
@@ -8238,51 +9147,51 @@
     </row>
     <row r="15" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B15" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>283</v>
+        <v>224</v>
       </c>
       <c r="B17" t="s">
-        <v>284</v>
+        <v>225</v>
       </c>
       <c r="E17" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>285</v>
+        <v>226</v>
       </c>
       <c r="B19" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E19" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -8291,7 +9200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -8322,13 +9231,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>323</v>
+        <v>255</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -8355,10 +9264,10 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>321</v>
+        <v>253</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
@@ -8433,38 +9342,38 @@
     </row>
     <row r="15" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B16" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -8473,7 +9382,184 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="C10" s="2"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -8504,10 +9590,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>324</v>
+        <v>256</v>
       </c>
       <c r="B3" t="s">
-        <v>288</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -8534,10 +9620,10 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>280</v>
+        <v>221</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>281</v>
+        <v>222</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
@@ -8549,46 +9635,46 @@
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>223</v>
       </c>
       <c r="B8" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>290</v>
+        <v>231</v>
       </c>
       <c r="B9" t="s">
-        <v>291</v>
+        <v>232</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>292</v>
+        <v>233</v>
       </c>
       <c r="B10" t="s">
-        <v>293</v>
+        <v>234</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>294</v>
+        <v>235</v>
       </c>
       <c r="B11" t="s">
-        <v>295</v>
+        <v>236</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>296</v>
+        <v>237</v>
       </c>
       <c r="B12" t="s">
-        <v>297</v>
+        <v>238</v>
       </c>
       <c r="C12" s="2"/>
     </row>
@@ -8655,184 +9741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="C8" s="2"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="C10" s="2"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="C11" s="2"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>123</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>125</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="C18" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
@@ -8863,13 +9772,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>325</v>
+        <v>257</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>274</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -8896,10 +9805,10 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
@@ -8911,13 +9820,13 @@
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -8985,142 +9894,142 @@
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c r="B15" t="s">
-        <v>276</v>
+        <v>217</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" t="s">
         <v>90</v>
-      </c>
-      <c r="B17" t="s">
-        <v>91</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>279</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" t="s">
         <v>92</v>
-      </c>
-      <c r="B18" t="s">
-        <v>93</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" t="s">
         <v>95</v>
-      </c>
-      <c r="B19" t="s">
-        <v>96</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>278</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" t="s">
         <v>100</v>
-      </c>
-      <c r="B21" t="s">
-        <v>101</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>277</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" t="s">
         <v>103</v>
-      </c>
-      <c r="B22" t="s">
-        <v>104</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" t="s">
         <v>106</v>
-      </c>
-      <c r="B23" t="s">
-        <v>107</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -9129,7 +10038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -9160,13 +10069,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>326</v>
+        <v>258</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -9193,10 +10102,10 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>280</v>
+        <v>221</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>281</v>
+        <v>222</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
@@ -9208,10 +10117,10 @@
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>223</v>
       </c>
       <c r="B8" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -9277,51 +10186,51 @@
     </row>
     <row r="15" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B15" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>286</v>
+        <v>227</v>
       </c>
       <c r="B16" t="s">
-        <v>287</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>283</v>
+        <v>224</v>
       </c>
       <c r="B17" t="s">
-        <v>284</v>
+        <v>225</v>
       </c>
       <c r="E17" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>285</v>
+        <v>226</v>
       </c>
       <c r="B19" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E19" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -9330,7 +10239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -9360,13 +10269,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>322</v>
+        <v>254</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -9393,10 +10302,10 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>321</v>
+        <v>253</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
@@ -9471,51 +10380,51 @@
     </row>
     <row r="15" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B15" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>283</v>
+        <v>224</v>
       </c>
       <c r="B17" t="s">
-        <v>284</v>
+        <v>225</v>
       </c>
       <c r="E17" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>285</v>
+        <v>226</v>
       </c>
       <c r="B19" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E19" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -9524,7 +10433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -9555,10 +10464,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>327</v>
+        <v>259</v>
       </c>
       <c r="B3" t="s">
-        <v>289</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -9585,10 +10494,10 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>280</v>
+        <v>221</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>281</v>
+        <v>222</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
@@ -9600,10 +10509,10 @@
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>223</v>
       </c>
       <c r="B8" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -9678,7 +10587,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9704,7 +10613,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>433</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -9734,13 +10643,13 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="B7" t="s">
-        <v>434</v>
+        <v>362</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -9762,16 +10671,16 @@
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>366</v>
+        <v>297</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
         <v>29</v>
@@ -9796,10 +10705,10 @@
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>369</v>
+        <v>300</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>11</v>
@@ -9811,10 +10720,10 @@
     </row>
     <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>370</v>
+        <v>301</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>32</v>
@@ -9825,10 +10734,10 @@
     </row>
     <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>367</v>
+        <v>298</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>11</v>
@@ -9902,10 +10811,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9932,7 +10841,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>258</v>
+        <v>468</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
@@ -9965,7 +10874,7 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>314</v>
+        <v>467</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -9977,7 +10886,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
@@ -10054,7 +10963,7 @@
     </row>
     <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="C17" s="2"/>
     </row>
@@ -10066,16 +10975,16 @@
     </row>
     <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>261</v>
+        <v>441</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>129</v>
+      <c r="A20" t="s">
+        <v>299</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>11</v>
@@ -10087,10 +10996,10 @@
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>301</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>32</v>
@@ -10101,10 +11010,10 @@
     </row>
     <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>298</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>11</v>
@@ -10115,44 +11024,44 @@
     </row>
     <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>262</v>
+        <v>207</v>
       </c>
       <c r="B23" t="s">
-        <v>263</v>
+        <v>208</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>265</v>
+        <v>444</v>
       </c>
       <c r="B24" t="s">
-        <v>264</v>
+        <v>209</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>266</v>
+        <v>445</v>
       </c>
       <c r="B25" t="s">
-        <v>267</v>
+        <v>210</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>268</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.25">
@@ -10163,18 +11072,299 @@
         <v>14</v>
       </c>
     </row>
+    <row r="29" spans="1:5" ht="288" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="46.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>463</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="C10" s="2"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>296</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>260</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>441</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>299</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>301</v>
+      </c>
+      <c r="B21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>298</v>
+      </c>
+      <c r="B22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>207</v>
+      </c>
+      <c r="B23" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>444</v>
+      </c>
+      <c r="B24" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>445</v>
+      </c>
+      <c r="B25" t="s">
+        <v>210</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="288" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10188,7 +11378,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -10204,18 +11394,18 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C3" t="s">
         <v>51</v>
-      </c>
-      <c r="B3" t="s">
-        <v>435</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -10231,18 +11421,18 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>339</v>
+        <v>271</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -10250,7 +11440,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -10265,22 +11455,22 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
@@ -10312,13 +11502,13 @@
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
@@ -10337,7 +11527,7 @@
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>334</v>
+        <v>266</v>
       </c>
       <c r="C21" s="2"/>
       <c r="E21" s="1"/>
@@ -10401,101 +11591,101 @@
     </row>
     <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>335</v>
+        <v>267</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>360</v>
+        <v>291</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>336</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
         <v>75</v>
-      </c>
-      <c r="B31" t="s">
-        <v>76</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>315</v>
+        <v>248</v>
       </c>
       <c r="B32" t="s">
-        <v>316</v>
+        <v>249</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="49" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -10510,7 +11700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -10542,13 +11732,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>377</v>
+        <v>308</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -10577,30 +11767,30 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>379</v>
+        <v>310</v>
       </c>
       <c r="B7" t="s">
-        <v>380</v>
+        <v>311</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>381</v>
+        <v>312</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>382</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>372</v>
+        <v>303</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -10680,19 +11870,19 @@
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>373</v>
+        <v>304</v>
       </c>
       <c r="B18" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>374</v>
+        <v>305</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>11</v>
@@ -10700,10 +11890,10 @@
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>375</v>
+        <v>306</v>
       </c>
       <c r="B20" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>11</v>
@@ -10711,31 +11901,31 @@
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>315</v>
+        <v>248</v>
       </c>
       <c r="B21" t="s">
-        <v>316</v>
+        <v>249</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>376</v>
+        <v>307</v>
       </c>
       <c r="B22" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C22" s="2"/>
       <c r="E22" t="s">
-        <v>378</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.25">
@@ -10753,7 +11943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -10788,13 +11978,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>333</v>
+        <v>265</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -10821,65 +12011,65 @@
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>328</v>
+        <v>260</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>329</v>
+        <v>261</v>
       </c>
       <c r="B9" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="C9" s="2"/>
       <c r="E9" t="s">
-        <v>331</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>317</v>
+        <v>250</v>
       </c>
       <c r="B10" t="s">
-        <v>316</v>
+        <v>249</v>
       </c>
       <c r="C10" s="2"/>
       <c r="E10" t="s">
-        <v>332</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>306</v>
+        <v>243</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="2"/>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>318</v>
+        <v>251</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="2"/>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.25">
@@ -10956,361 +12146,6 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
-    <col min="2" max="2" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.5" customWidth="1"/>
-    <col min="6" max="6" width="42.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B3" t="s">
-        <v>363</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>371</v>
-      </c>
-      <c r="B8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="C10" s="2"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="C12" s="2"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="C13" s="2"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>358</v>
-      </c>
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>320</v>
-      </c>
-      <c r="B20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>360</v>
-      </c>
-      <c r="B22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="33" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>351</v>
-      </c>
-      <c r="B23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>352</v>
-      </c>
-      <c r="B24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>353</v>
-      </c>
-      <c r="B25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" ht="33" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>354</v>
-      </c>
-      <c r="B26" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="33" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>355</v>
-      </c>
-      <c r="B27" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>361</v>
-      </c>
-      <c r="B28" t="s">
-        <v>359</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>356</v>
-      </c>
-      <c r="B29" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>357</v>
-      </c>
-      <c r="B30" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
         <v>14</v>
       </c>
     </row>
